--- a/natmiOut/OldD7/LR-pairs_lrc2p/Wnt11-Fzd7.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/Wnt11-Fzd7.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
@@ -89,9 +92,6 @@
   </si>
   <si>
     <t>Fzd7</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
 </sst>
 </file>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,61 +522,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>4.99351010084102</v>
+        <v>0.2633733333333333</v>
       </c>
       <c r="H2">
-        <v>4.99351010084102</v>
+        <v>0.7901199999999999</v>
       </c>
       <c r="I2">
-        <v>0.8359651370376613</v>
+        <v>0.03985693834931883</v>
       </c>
       <c r="J2">
-        <v>0.8359651370376613</v>
+        <v>0.03985693834931883</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.27097428756757</v>
+        <v>1.301118333333333</v>
       </c>
       <c r="N2">
-        <v>1.27097428756757</v>
+        <v>3.903355</v>
       </c>
       <c r="O2">
-        <v>0.06464149922200585</v>
+        <v>0.05808586029604726</v>
       </c>
       <c r="P2">
-        <v>0.06464149922200585</v>
+        <v>0.05808586029604726</v>
       </c>
       <c r="Q2">
-        <v>6.34662294287788</v>
+        <v>0.3426798725111111</v>
       </c>
       <c r="R2">
-        <v>6.34662294287788</v>
+        <v>3.0841188526</v>
       </c>
       <c r="S2">
-        <v>0.054038039755444</v>
+        <v>0.002315124552786702</v>
       </c>
       <c r="T2">
-        <v>0.054038039755444</v>
+        <v>0.002315124552786702</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,61 +584,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>4.99351010084102</v>
+        <v>0.2633733333333333</v>
       </c>
       <c r="H3">
-        <v>4.99351010084102</v>
+        <v>0.7901199999999999</v>
       </c>
       <c r="I3">
-        <v>0.8359651370376613</v>
+        <v>0.03985693834931883</v>
       </c>
       <c r="J3">
-        <v>0.8359651370376613</v>
+        <v>0.03985693834931883</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>11.1685789819531</v>
+        <v>11.20764866666667</v>
       </c>
       <c r="N3">
-        <v>11.1685789819531</v>
+        <v>33.622946</v>
       </c>
       <c r="O3">
-        <v>0.5680317034222065</v>
+        <v>0.5003433569576788</v>
       </c>
       <c r="P3">
-        <v>0.5680317034222065</v>
+        <v>0.500343356957679</v>
       </c>
       <c r="Q3">
-        <v>55.77041195842352</v>
+        <v>2.951795788168888</v>
       </c>
       <c r="R3">
-        <v>55.77041195842352</v>
+        <v>26.56616209352</v>
       </c>
       <c r="S3">
-        <v>0.4748547007930811</v>
+        <v>0.01994215433175343</v>
       </c>
       <c r="T3">
-        <v>0.4748547007930811</v>
+        <v>0.01994215433175343</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,61 +646,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>4.99351010084102</v>
+        <v>0.2633733333333333</v>
       </c>
       <c r="H4">
-        <v>4.99351010084102</v>
+        <v>0.7901199999999999</v>
       </c>
       <c r="I4">
-        <v>0.8359651370376613</v>
+        <v>0.03985693834931883</v>
       </c>
       <c r="J4">
-        <v>0.8359651370376613</v>
+        <v>0.03985693834931883</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>3.49788868004717</v>
+        <v>3.84722</v>
       </c>
       <c r="N4">
-        <v>3.49788868004717</v>
+        <v>11.54166</v>
       </c>
       <c r="O4">
-        <v>0.1779019218576531</v>
+        <v>0.1717515445929148</v>
       </c>
       <c r="P4">
-        <v>0.1779019218576531</v>
+        <v>0.1717515445929148</v>
       </c>
       <c r="Q4">
-        <v>17.466742455433</v>
+        <v>1.013255155466666</v>
       </c>
       <c r="R4">
-        <v>17.466742455433</v>
+        <v>9.1192963992</v>
       </c>
       <c r="S4">
-        <v>0.1487198044849963</v>
+        <v>0.006845490724240087</v>
       </c>
       <c r="T4">
-        <v>0.1487198044849963</v>
+        <v>0.006845490724240087</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,61 +708,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>22</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>4.99351010084102</v>
+        <v>0.2633733333333333</v>
       </c>
       <c r="H5">
-        <v>4.99351010084102</v>
+        <v>0.7901199999999999</v>
       </c>
       <c r="I5">
-        <v>0.8359651370376613</v>
+        <v>0.03985693834931883</v>
       </c>
       <c r="J5">
-        <v>0.8359651370376613</v>
+        <v>0.03985693834931883</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>3.72445176986021</v>
+        <v>6.043928</v>
       </c>
       <c r="N5">
-        <v>3.72445176986021</v>
+        <v>18.131784</v>
       </c>
       <c r="O5">
-        <v>0.1894248754981344</v>
+        <v>0.2698192381533591</v>
       </c>
       <c r="P5">
-        <v>0.1894248754981344</v>
+        <v>0.2698192381533591</v>
       </c>
       <c r="Q5">
-        <v>18.59808753289217</v>
+        <v>1.591809463786666</v>
       </c>
       <c r="R5">
-        <v>18.59808753289217</v>
+        <v>14.32628517408</v>
       </c>
       <c r="S5">
-        <v>0.1583525920041399</v>
+        <v>0.01075416874053861</v>
       </c>
       <c r="T5">
-        <v>0.1583525920041399</v>
+        <v>0.01075416874053861</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -770,61 +770,61 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.506145299160598</v>
+        <v>5.185377</v>
       </c>
       <c r="H6">
-        <v>0.506145299160598</v>
+        <v>15.556131</v>
       </c>
       <c r="I6">
-        <v>0.08473394783010341</v>
+        <v>0.7847159345680752</v>
       </c>
       <c r="J6">
-        <v>0.08473394783010341</v>
+        <v>0.7847159345680751</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.27097428756757</v>
+        <v>1.301118333333333</v>
       </c>
       <c r="N6">
-        <v>1.27097428756757</v>
+        <v>3.903355</v>
       </c>
       <c r="O6">
-        <v>0.06464149922200585</v>
+        <v>0.05808586029604726</v>
       </c>
       <c r="P6">
-        <v>0.06464149922200585</v>
+        <v>0.05808586029604726</v>
       </c>
       <c r="Q6">
-        <v>0.6432976610063157</v>
+        <v>6.746789079945</v>
       </c>
       <c r="R6">
-        <v>0.6432976610063157</v>
+        <v>60.721101719505</v>
       </c>
       <c r="S6">
-        <v>0.005477329422737114</v>
+        <v>0.04558090014740338</v>
       </c>
       <c r="T6">
-        <v>0.005477329422737114</v>
+        <v>0.04558090014740337</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,61 +832,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.506145299160598</v>
+        <v>5.185377</v>
       </c>
       <c r="H7">
-        <v>0.506145299160598</v>
+        <v>15.556131</v>
       </c>
       <c r="I7">
-        <v>0.08473394783010341</v>
+        <v>0.7847159345680752</v>
       </c>
       <c r="J7">
-        <v>0.08473394783010341</v>
+        <v>0.7847159345680751</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>11.1685789819531</v>
+        <v>11.20764866666667</v>
       </c>
       <c r="N7">
-        <v>11.1685789819531</v>
+        <v>33.622946</v>
       </c>
       <c r="O7">
-        <v>0.5680317034222065</v>
+        <v>0.5003433569576788</v>
       </c>
       <c r="P7">
-        <v>0.5680317034222065</v>
+        <v>0.500343356957679</v>
       </c>
       <c r="Q7">
-        <v>5.652923750019419</v>
+        <v>58.11588362021399</v>
       </c>
       <c r="R7">
-        <v>5.652923750019419</v>
+        <v>523.042952581926</v>
       </c>
       <c r="S7">
-        <v>0.04813156872362202</v>
+        <v>0.392627404959973</v>
       </c>
       <c r="T7">
-        <v>0.04813156872362202</v>
+        <v>0.3926274049599731</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -894,61 +894,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.506145299160598</v>
+        <v>5.185377</v>
       </c>
       <c r="H8">
-        <v>0.506145299160598</v>
+        <v>15.556131</v>
       </c>
       <c r="I8">
-        <v>0.08473394783010341</v>
+        <v>0.7847159345680752</v>
       </c>
       <c r="J8">
-        <v>0.08473394783010341</v>
+        <v>0.7847159345680751</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>3.49788868004717</v>
+        <v>3.84722</v>
       </c>
       <c r="N8">
-        <v>3.49788868004717</v>
+        <v>11.54166</v>
       </c>
       <c r="O8">
-        <v>0.1779019218576531</v>
+        <v>0.1717515445929148</v>
       </c>
       <c r="P8">
-        <v>0.1779019218576531</v>
+        <v>0.1717515445929148</v>
       </c>
       <c r="Q8">
-        <v>1.770439912392944</v>
+        <v>19.94928610194</v>
       </c>
       <c r="R8">
-        <v>1.770439912392944</v>
+        <v>179.54357491746</v>
       </c>
       <c r="S8">
-        <v>0.01507433216556151</v>
+        <v>0.1347761738287395</v>
       </c>
       <c r="T8">
-        <v>0.01507433216556151</v>
+        <v>0.1347761738287395</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -956,61 +956,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
         <v>23</v>
       </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" t="s">
-        <v>22</v>
-      </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.506145299160598</v>
+        <v>5.185377</v>
       </c>
       <c r="H9">
-        <v>0.506145299160598</v>
+        <v>15.556131</v>
       </c>
       <c r="I9">
-        <v>0.08473394783010341</v>
+        <v>0.7847159345680752</v>
       </c>
       <c r="J9">
-        <v>0.08473394783010341</v>
+        <v>0.7847159345680751</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>3.72445176986021</v>
+        <v>6.043928</v>
       </c>
       <c r="N9">
-        <v>3.72445176986021</v>
+        <v>18.131784</v>
       </c>
       <c r="O9">
-        <v>0.1894248754981344</v>
+        <v>0.2698192381533591</v>
       </c>
       <c r="P9">
-        <v>0.1894248754981344</v>
+        <v>0.2698192381533591</v>
       </c>
       <c r="Q9">
-        <v>1.885113755265115</v>
+        <v>31.340045240856</v>
       </c>
       <c r="R9">
-        <v>1.885113755265115</v>
+        <v>282.060407167704</v>
       </c>
       <c r="S9">
-        <v>0.01605071751818276</v>
+        <v>0.2117314556319592</v>
       </c>
       <c r="T9">
-        <v>0.01605071751818276</v>
+        <v>0.2117314556319592</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1018,61 +1018,61 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.473691907920933</v>
+        <v>0.595363</v>
       </c>
       <c r="H10">
-        <v>0.473691907920933</v>
+        <v>1.786089</v>
       </c>
       <c r="I10">
-        <v>0.07930091513223542</v>
+        <v>0.09009775623879478</v>
       </c>
       <c r="J10">
-        <v>0.07930091513223542</v>
+        <v>0.09009775623879476</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.27097428756757</v>
+        <v>1.301118333333333</v>
       </c>
       <c r="N10">
-        <v>1.27097428756757</v>
+        <v>3.903355</v>
       </c>
       <c r="O10">
-        <v>0.06464149922200585</v>
+        <v>0.05808586029604726</v>
       </c>
       <c r="P10">
-        <v>0.06464149922200585</v>
+        <v>0.05808586029604726</v>
       </c>
       <c r="Q10">
-        <v>0.6020502351963308</v>
+        <v>0.7746377142883333</v>
       </c>
       <c r="R10">
-        <v>0.6020502351963308</v>
+        <v>6.971739428595</v>
       </c>
       <c r="S10">
-        <v>0.005126130043824747</v>
+        <v>0.005233405681873954</v>
       </c>
       <c r="T10">
-        <v>0.005126130043824747</v>
+        <v>0.005233405681873953</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1080,61 +1080,61 @@
         <v>22</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.473691907920933</v>
+        <v>0.595363</v>
       </c>
       <c r="H11">
-        <v>0.473691907920933</v>
+        <v>1.786089</v>
       </c>
       <c r="I11">
-        <v>0.07930091513223542</v>
+        <v>0.09009775623879478</v>
       </c>
       <c r="J11">
-        <v>0.07930091513223542</v>
+        <v>0.09009775623879476</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>11.1685789819531</v>
+        <v>11.20764866666667</v>
       </c>
       <c r="N11">
-        <v>11.1685789819531</v>
+        <v>33.622946</v>
       </c>
       <c r="O11">
-        <v>0.5680317034222065</v>
+        <v>0.5003433569576788</v>
       </c>
       <c r="P11">
-        <v>0.5680317034222065</v>
+        <v>0.500343356957679</v>
       </c>
       <c r="Q11">
-        <v>5.290465486726996</v>
+        <v>6.672619333132666</v>
       </c>
       <c r="R11">
-        <v>5.290465486726996</v>
+        <v>60.053573998194</v>
       </c>
       <c r="S11">
-        <v>0.04504543390550352</v>
+        <v>0.04507981381087323</v>
       </c>
       <c r="T11">
-        <v>0.04504543390550352</v>
+        <v>0.04507981381087323</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1142,61 +1142,61 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.473691907920933</v>
+        <v>0.595363</v>
       </c>
       <c r="H12">
-        <v>0.473691907920933</v>
+        <v>1.786089</v>
       </c>
       <c r="I12">
-        <v>0.07930091513223542</v>
+        <v>0.09009775623879478</v>
       </c>
       <c r="J12">
-        <v>0.07930091513223542</v>
+        <v>0.09009775623879476</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>3.49788868004717</v>
+        <v>3.84722</v>
       </c>
       <c r="N12">
-        <v>3.49788868004717</v>
+        <v>11.54166</v>
       </c>
       <c r="O12">
-        <v>0.1779019218576531</v>
+        <v>0.1717515445929148</v>
       </c>
       <c r="P12">
-        <v>0.1779019218576531</v>
+        <v>0.1717515445929148</v>
       </c>
       <c r="Q12">
-        <v>1.656921562546578</v>
+        <v>2.29049244086</v>
       </c>
       <c r="R12">
-        <v>1.656921562546578</v>
+        <v>20.61443196774</v>
       </c>
       <c r="S12">
-        <v>0.01410778520709533</v>
+        <v>0.01547442879836892</v>
       </c>
       <c r="T12">
-        <v>0.01410778520709533</v>
+        <v>0.01547442879836892</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1204,61 +1204,309 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
         <v>23</v>
       </c>
-      <c r="C13" t="s">
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>0.595363</v>
+      </c>
+      <c r="H13">
+        <v>1.786089</v>
+      </c>
+      <c r="I13">
+        <v>0.09009775623879478</v>
+      </c>
+      <c r="J13">
+        <v>0.09009775623879476</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>6.043928</v>
+      </c>
+      <c r="N13">
+        <v>18.131784</v>
+      </c>
+      <c r="O13">
+        <v>0.2698192381533591</v>
+      </c>
+      <c r="P13">
+        <v>0.2698192381533591</v>
+      </c>
+      <c r="Q13">
+        <v>3.598331105864</v>
+      </c>
+      <c r="R13">
+        <v>32.384979952776</v>
+      </c>
+      <c r="S13">
+        <v>0.02431010794767866</v>
+      </c>
+      <c r="T13">
+        <v>0.02431010794767866</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
         <v>24</v>
       </c>
-      <c r="D13" t="s">
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>0.5638536666666667</v>
+      </c>
+      <c r="H14">
+        <v>1.691561</v>
+      </c>
+      <c r="I14">
+        <v>0.08532937084381123</v>
+      </c>
+      <c r="J14">
+        <v>0.0853293708438112</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>1.301118333333333</v>
+      </c>
+      <c r="N14">
+        <v>3.903355</v>
+      </c>
+      <c r="O14">
+        <v>0.05808586029604726</v>
+      </c>
+      <c r="P14">
+        <v>0.05808586029604726</v>
+      </c>
+      <c r="Q14">
+        <v>0.7336403430172223</v>
+      </c>
+      <c r="R14">
+        <v>6.602763087155</v>
+      </c>
+      <c r="S14">
+        <v>0.004956429913983228</v>
+      </c>
+      <c r="T14">
+        <v>0.004956429913983226</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>0.5638536666666667</v>
+      </c>
+      <c r="H15">
+        <v>1.691561</v>
+      </c>
+      <c r="I15">
+        <v>0.08532937084381123</v>
+      </c>
+      <c r="J15">
+        <v>0.0853293708438112</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>11.20764866666667</v>
+      </c>
+      <c r="N15">
+        <v>33.622946</v>
+      </c>
+      <c r="O15">
+        <v>0.5003433569576788</v>
+      </c>
+      <c r="P15">
+        <v>0.500343356957679</v>
+      </c>
+      <c r="Q15">
+        <v>6.319473795411778</v>
+      </c>
+      <c r="R15">
+        <v>56.875264158706</v>
+      </c>
+      <c r="S15">
+        <v>0.04269398385507919</v>
+      </c>
+      <c r="T15">
+        <v>0.04269398385507919</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
         <v>22</v>
       </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>0.473691907920933</v>
-      </c>
-      <c r="H13">
-        <v>0.473691907920933</v>
-      </c>
-      <c r="I13">
-        <v>0.07930091513223542</v>
-      </c>
-      <c r="J13">
-        <v>0.07930091513223542</v>
-      </c>
-      <c r="K13">
-        <v>1</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>3.72445176986021</v>
-      </c>
-      <c r="N13">
-        <v>3.72445176986021</v>
-      </c>
-      <c r="O13">
-        <v>0.1894248754981344</v>
-      </c>
-      <c r="P13">
-        <v>0.1894248754981344</v>
-      </c>
-      <c r="Q13">
-        <v>1.764242664824579</v>
-      </c>
-      <c r="R13">
-        <v>1.764242664824579</v>
-      </c>
-      <c r="S13">
-        <v>0.01502156597581182</v>
-      </c>
-      <c r="T13">
-        <v>0.01502156597581182</v>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>0.5638536666666667</v>
+      </c>
+      <c r="H16">
+        <v>1.691561</v>
+      </c>
+      <c r="I16">
+        <v>0.08532937084381123</v>
+      </c>
+      <c r="J16">
+        <v>0.0853293708438112</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>3.84722</v>
+      </c>
+      <c r="N16">
+        <v>11.54166</v>
+      </c>
+      <c r="O16">
+        <v>0.1717515445929148</v>
+      </c>
+      <c r="P16">
+        <v>0.1717515445929148</v>
+      </c>
+      <c r="Q16">
+        <v>2.169269103473333</v>
+      </c>
+      <c r="R16">
+        <v>19.52342193126</v>
+      </c>
+      <c r="S16">
+        <v>0.0146554512415662</v>
+      </c>
+      <c r="T16">
+        <v>0.0146554512415662</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>0.5638536666666667</v>
+      </c>
+      <c r="H17">
+        <v>1.691561</v>
+      </c>
+      <c r="I17">
+        <v>0.08532937084381123</v>
+      </c>
+      <c r="J17">
+        <v>0.0853293708438112</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>6.043928</v>
+      </c>
+      <c r="N17">
+        <v>18.131784</v>
+      </c>
+      <c r="O17">
+        <v>0.2698192381533591</v>
+      </c>
+      <c r="P17">
+        <v>0.2698192381533591</v>
+      </c>
+      <c r="Q17">
+        <v>3.407890963869334</v>
+      </c>
+      <c r="R17">
+        <v>30.671018674824</v>
+      </c>
+      <c r="S17">
+        <v>0.0230235058331826</v>
+      </c>
+      <c r="T17">
+        <v>0.02302350583318259</v>
       </c>
     </row>
   </sheetData>
